--- a/Class Work/CS 2318/Assignment Optional 1/AssignOpt01_StackFrameDetails.xlsx
+++ b/Class Work/CS 2318/Assignment Optional 1/AssignOpt01_StackFrameDetails.xlsx
@@ -5,18 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lk04\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndela\Documents\Code Workspace\School-Work\Class Work\CS 2318\Assignment Optional 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063FC94-1FB4-46AB-B36D-70D0AECC493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1934B8D0-1DF1-4C99-A87F-2741F7DD390A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13185" yWindow="4620" windowWidth="15345" windowHeight="10980" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="5" r:id="rId1"/>
     <sheet name="CoutCstrNL" sheetId="20" r:id="rId2"/>
     <sheet name="PopulateArray" sheetId="22" r:id="rId3"/>
     <sheet name="ShowArrayLabeled" sheetId="9" r:id="rId4"/>
+    <sheet name="hasDup" sheetId="24" r:id="rId5"/>
+    <sheet name="Exists" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">CoutCstrNL!$A$1:$AB$59</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="71">
   <si>
     <t>SP (old)</t>
   </si>
@@ -252,6 +254,24 @@
   <si>
     <t>'+'</t>
   </si>
+  <si>
+    <t>($fP)</t>
+  </si>
+  <si>
+    <t>numEle</t>
+  </si>
+  <si>
+    <t>arrBegPtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show </t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>($ra)</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -516,6 +536,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2598,6 +2633,122 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E14801-3166-4BA1-B09C-E28BFB8310B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1476375" y="13030200"/>
+          <a:ext cx="180975" cy="986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B164FD7A-791A-439A-9D32-5B78D94AB045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1219200" y="13382625"/>
+          <a:ext cx="180975" cy="986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2924,7 +3075,9 @@
   </sheetPr>
   <dimension ref="A2:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4759,7 +4912,9 @@
   </sheetPr>
   <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6195,17 +6350,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Y37:Y38"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Y37:Y38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -6224,7 +6379,9 @@
   </sheetPr>
   <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8057,9 +8214,11 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AB56"/>
+  <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8085,6 +8244,11 @@
     <col min="28" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="G2" s="9"/>
@@ -9515,4 +9679,858 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF87040-F013-4F9A-9DBB-EA8AF4DA35C3}">
+  <dimension ref="A3:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>43</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>41</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>32</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>31</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>30</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>29</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>28</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>27</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>25</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>24</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>22</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>21</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="D34" s="47"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>19</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>18</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="D36" s="47"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>17</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>16</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>15</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>14</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>13</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>12</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>11</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>9</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>8</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>7</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>6</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>5</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>4</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>3</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>2</v>
+      </c>
+      <c r="B52" s="46"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>1</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>0</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="D54" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24030D-97E3-4514-B85B-2E3B2267588F}">
+  <dimension ref="A3:G55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>43</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>41</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>32</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>31</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>30</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>29</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>28</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="D26" s="35"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>27</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>25</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>24</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="D30" s="35"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>22</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>21</v>
+      </c>
+      <c r="B33" s="49"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="D34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>19</v>
+      </c>
+      <c r="B35" s="49"/>
+      <c r="D35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>18</v>
+      </c>
+      <c r="B36" s="49"/>
+      <c r="D36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>17</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>16</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>15</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>14</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>13</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>12</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="D42" s="35"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>11</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>9</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="D45" s="35"/>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>8</v>
+      </c>
+      <c r="B46" s="44"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>7</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>6</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="D48" s="35"/>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>5</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>4</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="D50" s="35"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>3</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>2</v>
+      </c>
+      <c r="B52" s="46"/>
+      <c r="D52" s="35"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>1</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="D53" s="35"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>0</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="D54" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D23:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Class Work/CS 2318/Assignment Optional 1/AssignOpt01_StackFrameDetails.xlsx
+++ b/Class Work/CS 2318/Assignment Optional 1/AssignOpt01_StackFrameDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndela\Documents\Code Workspace\School-Work\Class Work\CS 2318\Assignment Optional 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1934B8D0-1DF1-4C99-A87F-2741F7DD390A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F734AD-FE3B-46DC-A2E3-DDA2E1AB3004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="4620" windowWidth="15345" windowHeight="10980" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="5760" windowWidth="15345" windowHeight="10980" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="71">
   <si>
     <t>SP (old)</t>
   </si>
@@ -255,9 +255,6 @@
     <t>'+'</t>
   </si>
   <si>
-    <t>($fP)</t>
-  </si>
-  <si>
     <t>numEle</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>($ra)</t>
+  </si>
+  <si>
+    <t>($fp)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -510,6 +510,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,18 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2226,8 +2235,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="266700" y="2076450"/>
-          <a:ext cx="3286127" cy="1476378"/>
+          <a:off x="227240" y="2118631"/>
+          <a:ext cx="3374574" cy="1477739"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2688,6 +2697,491 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4728</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC1129C-6772-4B8C-96FF-E9C9E4603A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1476375" y="5410200"/>
+          <a:ext cx="185703" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFD86BB-20AB-4A78-85BF-9420AC7AA645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1100137" y="8205790"/>
+          <a:ext cx="8848725" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6198F7-80C4-44E7-BF88-6E6DF551AB79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4681537" y="8272465"/>
+          <a:ext cx="8848725" cy="1219199"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03587B5A-A6B4-43A3-9EEE-6476CB5E0DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6549839" y="2145925"/>
+          <a:ext cx="3227296" cy="2095503"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 133681"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88420A6-8740-40E6-999C-A97152D70250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7662862" y="8205789"/>
+          <a:ext cx="8848725" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E48D80-82BB-487B-BBBF-26860DD92146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8939213" y="1985962"/>
+          <a:ext cx="3257550" cy="1685926"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130866"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52404B8B-2AE3-448B-957C-0D0353ED6238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1757362" y="8205788"/>
+          <a:ext cx="8848725" cy="1352549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3177</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992B1CB9-FAAB-470E-ADF6-711B4102DCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3124201" y="2060574"/>
+          <a:ext cx="3257550" cy="1511302"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130897"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>275894</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>965638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3728</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>235828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8869B-0CB3-4D07-975A-754DEA5473C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5474" y="2418472"/>
+          <a:ext cx="3277259" cy="1514592"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130577"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2738,6 +3232,491 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4728</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582C6080-33DC-42A6-9640-F75F9C813B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1219200" y="5762625"/>
+          <a:ext cx="185703" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B8DEF8-4A51-4D6A-B6F1-E265E19F98F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1485900" y="8715378"/>
+          <a:ext cx="8848725" cy="1095374"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8613B0E-9D6A-43D9-A19B-62CC67FD19A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5614987" y="8501065"/>
+          <a:ext cx="8848725" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59E313F-F7E9-4EF2-87E2-506A3286C117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6588779" y="2150127"/>
+          <a:ext cx="3263715" cy="2113433"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 133681"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Elbow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6682FE-13CF-4C86-9378-30DDCF4FB78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9272587" y="8501064"/>
+          <a:ext cx="8848725" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF72BBE5-A568-496C-BF00-3023427C3BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10244138" y="2147887"/>
+          <a:ext cx="3257550" cy="2124076"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130866"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4649E846-E3DF-4386-A917-6AA85B19C3F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1957387" y="8501063"/>
+          <a:ext cx="8848725" cy="1523999"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 105986"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3177</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAB65E2-4171-4AFB-BF2D-CF74F054D783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2924176" y="2127249"/>
+          <a:ext cx="3257550" cy="2139952"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130897"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608465</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Elbow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0138F30D-F867-4E42-BDB1-A48944BFCE1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="216267" y="2250708"/>
+          <a:ext cx="3281082" cy="1922915"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 130123"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3780,7 +4759,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="16"/>
       <c r="T25" s="15"/>
-      <c r="V25" s="36" t="s">
+      <c r="V25" s="43" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3816,10 +4795,10 @@
       <c r="S26" s="16">
         <v>207</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="36"/>
+      <c r="V26" s="43"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
@@ -3853,7 +4832,7 @@
       <c r="S27" s="16">
         <v>206</v>
       </c>
-      <c r="T27" s="38"/>
+      <c r="T27" s="45"/>
       <c r="V27" s="32"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -3888,7 +4867,7 @@
       <c r="S28" s="16">
         <v>205</v>
       </c>
-      <c r="T28" s="38"/>
+      <c r="T28" s="45"/>
       <c r="V28" s="32"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -3923,7 +4902,7 @@
       <c r="S29" s="16">
         <v>204</v>
       </c>
-      <c r="T29" s="39"/>
+      <c r="T29" s="46"/>
       <c r="V29" s="32"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -3958,7 +4937,7 @@
       <c r="S30" s="16">
         <v>203</v>
       </c>
-      <c r="T30" s="37" t="s">
+      <c r="T30" s="44" t="s">
         <v>39</v>
       </c>
       <c r="V30" s="32"/>
@@ -3995,7 +4974,7 @@
       <c r="S31" s="16">
         <v>202</v>
       </c>
-      <c r="T31" s="38"/>
+      <c r="T31" s="45"/>
       <c r="V31" s="32"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -4030,7 +5009,7 @@
       <c r="S32" s="16">
         <v>201</v>
       </c>
-      <c r="T32" s="38"/>
+      <c r="T32" s="45"/>
       <c r="V32" s="32"/>
     </row>
     <row r="33" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -4065,7 +5044,7 @@
       <c r="S33" s="16">
         <v>200</v>
       </c>
-      <c r="T33" s="39"/>
+      <c r="T33" s="46"/>
       <c r="V33" s="32"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -4100,7 +5079,7 @@
       <c r="S34" s="16">
         <v>199</v>
       </c>
-      <c r="T34" s="40" t="s">
+      <c r="T34" s="47" t="s">
         <v>59</v>
       </c>
       <c r="V34" s="32"/>
@@ -4137,7 +5116,7 @@
       <c r="S35" s="16">
         <v>198</v>
       </c>
-      <c r="T35" s="41"/>
+      <c r="T35" s="48"/>
       <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4172,7 +5151,7 @@
       <c r="S36" s="16">
         <v>197</v>
       </c>
-      <c r="T36" s="41"/>
+      <c r="T36" s="48"/>
       <c r="V36" s="32"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -4207,7 +5186,7 @@
       <c r="S37" s="16">
         <v>196</v>
       </c>
-      <c r="T37" s="45"/>
+      <c r="T37" s="52"/>
       <c r="V37" s="32"/>
     </row>
     <row r="38" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -4239,10 +5218,10 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="T38" s="43" t="s">
+      <c r="T38" s="50" t="s">
         <v>37</v>
       </c>
       <c r="V38" s="32"/>
@@ -4278,15 +5257,15 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="44"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="51"/>
       <c r="V39" s="32"/>
     </row>
     <row r="40" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>15</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="4"/>
@@ -4316,7 +5295,7 @@
       <c r="S40" s="16">
         <v>155</v>
       </c>
-      <c r="T40" s="37" t="s">
+      <c r="T40" s="44" t="s">
         <v>38</v>
       </c>
       <c r="V40" s="32"/>
@@ -4325,7 +5304,7 @@
       <c r="A41" s="16">
         <v>14</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -4351,14 +5330,14 @@
       <c r="S41" s="16">
         <v>154</v>
       </c>
-      <c r="T41" s="38"/>
+      <c r="T41" s="45"/>
       <c r="V41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>13</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="45"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -4384,14 +5363,14 @@
       <c r="S42" s="16">
         <v>153</v>
       </c>
-      <c r="T42" s="38"/>
+      <c r="T42" s="45"/>
       <c r="V42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>12</v>
       </c>
-      <c r="B43" s="39"/>
+      <c r="B43" s="46"/>
       <c r="D43" s="4"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -4417,7 +5396,7 @@
       <c r="S43" s="16">
         <v>152</v>
       </c>
-      <c r="T43" s="39"/>
+      <c r="T43" s="46"/>
       <c r="V43" s="4" t="s">
         <v>40</v>
       </c>
@@ -4426,7 +5405,7 @@
       <c r="A44" s="16">
         <v>11</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="4"/>
@@ -4454,16 +5433,16 @@
       <c r="S44" s="16">
         <v>151</v>
       </c>
-      <c r="T44" s="40" t="s">
+      <c r="T44" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="V44" s="35"/>
+      <c r="V44" s="42"/>
     </row>
     <row r="45" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>10</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -4489,14 +5468,14 @@
       <c r="S45" s="16">
         <v>150</v>
       </c>
-      <c r="T45" s="41"/>
-      <c r="V45" s="35"/>
+      <c r="T45" s="48"/>
+      <c r="V45" s="42"/>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>9</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="45"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -4522,14 +5501,14 @@
       <c r="S46" s="16">
         <v>149</v>
       </c>
-      <c r="T46" s="41"/>
-      <c r="V46" s="35"/>
+      <c r="T46" s="48"/>
+      <c r="V46" s="42"/>
     </row>
     <row r="47" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>8</v>
       </c>
-      <c r="B47" s="39"/>
+      <c r="B47" s="46"/>
       <c r="D47" s="4"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -4555,14 +5534,14 @@
       <c r="S47" s="16">
         <v>148</v>
       </c>
-      <c r="T47" s="41"/>
-      <c r="V47" s="35"/>
+      <c r="T47" s="48"/>
+      <c r="V47" s="42"/>
     </row>
     <row r="48" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>7</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4"/>
@@ -4599,7 +5578,7 @@
       <c r="A49" s="16">
         <v>6</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="45"/>
       <c r="D49" s="4"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -4634,7 +5613,7 @@
       <c r="A50" s="16">
         <v>5</v>
       </c>
-      <c r="B50" s="38"/>
+      <c r="B50" s="45"/>
       <c r="D50" s="8"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -4669,7 +5648,7 @@
       <c r="A51" s="16">
         <v>4</v>
       </c>
-      <c r="B51" s="39"/>
+      <c r="B51" s="46"/>
       <c r="D51" s="8"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -4704,7 +5683,7 @@
       <c r="A52" s="16">
         <v>3</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="8"/>
@@ -4741,7 +5720,7 @@
       <c r="A53" s="16">
         <v>2</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="45"/>
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -4776,7 +5755,7 @@
       <c r="A54" s="16">
         <v>1</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="45"/>
       <c r="D54" s="4"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
@@ -4811,8 +5790,8 @@
       <c r="A55" s="16">
         <v>0</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="D55" s="35" t="s">
+      <c r="B55" s="46"/>
+      <c r="D55" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="7"/>
@@ -4853,7 +5832,7 @@
     <row r="56" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="3"/>
-      <c r="D56" s="35"/>
+      <c r="D56" s="42"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -4912,7 +5891,7 @@
   </sheetPr>
   <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -5291,7 +6270,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="12"/>
-      <c r="AB16" s="36"/>
+      <c r="AB16" s="43"/>
     </row>
     <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
@@ -5316,7 +6295,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="12"/>
-      <c r="AB17" s="36"/>
+      <c r="AB17" s="43"/>
     </row>
     <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
@@ -5421,7 +6400,7 @@
     <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="12"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
@@ -5449,10 +6428,10 @@
       <c r="A23" s="16">
         <v>31</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="16"/>
@@ -5478,7 +6457,7 @@
       <c r="A24" s="16">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="45"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5505,7 +6484,7 @@
       <c r="A25" s="16">
         <v>29</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="45"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -5532,7 +6511,7 @@
       <c r="A26" s="16">
         <v>28</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="46"/>
       <c r="D26" s="4"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -5559,7 +6538,7 @@
       <c r="A27" s="16">
         <v>27</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="4"/>
@@ -5588,7 +6567,7 @@
       <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="45"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -5615,7 +6594,7 @@
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="45"/>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -5642,7 +6621,7 @@
       <c r="A30" s="16">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="46"/>
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5688,7 +6667,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="42"/>
+      <c r="Y31" s="49"/>
       <c r="Z31" s="12"/>
       <c r="AB31" s="4"/>
     </row>
@@ -5715,7 +6694,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="42"/>
+      <c r="Y32" s="49"/>
       <c r="Z32" s="12"/>
       <c r="AB32" s="4"/>
     </row>
@@ -5850,7 +6829,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="42"/>
+      <c r="Y37" s="49"/>
       <c r="Z37" s="12"/>
       <c r="AB37" s="4"/>
     </row>
@@ -5877,7 +6856,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="49"/>
       <c r="Z38" s="12"/>
       <c r="AB38" s="4"/>
     </row>
@@ -5885,7 +6864,7 @@
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="4"/>
@@ -5914,7 +6893,7 @@
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -5941,7 +6920,7 @@
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -5968,7 +6947,7 @@
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="46"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -5995,7 +6974,7 @@
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="4"/>
@@ -6024,7 +7003,7 @@
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="45"/>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -6051,7 +7030,7 @@
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -6078,7 +7057,7 @@
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="46"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -6105,7 +7084,7 @@
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="4"/>
@@ -6134,7 +7113,7 @@
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="45"/>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -6161,7 +7140,7 @@
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="45"/>
       <c r="D49" s="21"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -6188,7 +7167,7 @@
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="46"/>
       <c r="D50" s="21"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -6215,7 +7194,7 @@
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="21"/>
@@ -6244,7 +7223,7 @@
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="45"/>
       <c r="D52" s="21"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -6271,7 +7250,7 @@
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="45"/>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -6298,8 +7277,8 @@
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="46"/>
+      <c r="D54" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="7"/>
@@ -6326,7 +7305,7 @@
     <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="16"/>
@@ -6350,17 +7329,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Y37:Y38"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B51:B54"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Y37:Y38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -6379,8 +7358,8 @@
   </sheetPr>
   <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +7811,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="15"/>
-      <c r="AB16" s="36"/>
+      <c r="AB16" s="43"/>
     </row>
     <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
@@ -6865,7 +7844,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="15"/>
-      <c r="AB17" s="36"/>
+      <c r="AB17" s="43"/>
     </row>
     <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
@@ -7218,7 +8197,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="16"/>
       <c r="N28" s="15"/>
-      <c r="P28" s="36" t="s">
+      <c r="P28" s="43" t="s">
         <v>0</v>
       </c>
       <c r="Q28" s="4"/>
@@ -7254,10 +8233,10 @@
       <c r="M29" s="16">
         <v>119</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="36"/>
+      <c r="P29" s="43"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="16"/>
@@ -7293,7 +8272,7 @@
       <c r="M30" s="16">
         <v>118</v>
       </c>
-      <c r="N30" s="38"/>
+      <c r="N30" s="45"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -7310,8 +8289,8 @@
       <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="D31" s="35" t="s">
+      <c r="B31" s="44"/>
+      <c r="D31" s="42" t="s">
         <v>54</v>
       </c>
       <c r="E31" s="6"/>
@@ -7328,7 +8307,7 @@
       <c r="M31" s="16">
         <v>117</v>
       </c>
-      <c r="N31" s="38"/>
+      <c r="N31" s="45"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -7337,7 +8316,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="42"/>
+      <c r="Y31" s="49"/>
       <c r="Z31" s="15"/>
       <c r="AB31" s="4"/>
     </row>
@@ -7345,8 +8324,8 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="45"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="16">
@@ -7361,7 +8340,7 @@
       <c r="M32" s="16">
         <v>116</v>
       </c>
-      <c r="N32" s="39"/>
+      <c r="N32" s="46"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -7370,7 +8349,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="42"/>
+      <c r="Y32" s="49"/>
       <c r="Z32" s="15"/>
       <c r="AB32" s="4"/>
     </row>
@@ -7378,8 +8357,8 @@
       <c r="A33" s="16">
         <v>21</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="D33" s="35"/>
+      <c r="B33" s="45"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="16">
@@ -7394,7 +8373,7 @@
       <c r="M33" s="16">
         <v>115</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="44" t="s">
         <v>39</v>
       </c>
       <c r="P33" s="4"/>
@@ -7413,8 +8392,8 @@
       <c r="A34" s="16">
         <v>20</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="46"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="16">
@@ -7429,7 +8408,7 @@
       <c r="M34" s="16">
         <v>114</v>
       </c>
-      <c r="N34" s="38"/>
+      <c r="N34" s="45"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -7446,10 +8425,10 @@
       <c r="A35" s="16">
         <v>19</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="42" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="6"/>
@@ -7466,7 +8445,7 @@
       <c r="M35" s="16">
         <v>113</v>
       </c>
-      <c r="N35" s="38"/>
+      <c r="N35" s="45"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -7483,8 +8462,8 @@
       <c r="A36" s="16">
         <v>18</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="45"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="16">
@@ -7499,7 +8478,7 @@
       <c r="M36" s="16">
         <v>112</v>
       </c>
-      <c r="N36" s="39"/>
+      <c r="N36" s="46"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -7516,8 +8495,8 @@
       <c r="A37" s="16">
         <v>17</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="D37" s="35"/>
+      <c r="B37" s="45"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="16">
@@ -7543,7 +8522,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="42"/>
+      <c r="Y37" s="49"/>
       <c r="Z37" s="15"/>
       <c r="AB37" s="4"/>
     </row>
@@ -7551,8 +8530,8 @@
       <c r="A38" s="16">
         <v>16</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="46"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="16">
@@ -7578,7 +8557,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="49"/>
       <c r="Z38" s="15"/>
       <c r="AB38" s="4"/>
     </row>
@@ -7586,7 +8565,7 @@
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="4"/>
@@ -7623,7 +8602,7 @@
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -7658,7 +8637,7 @@
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -7693,7 +8672,7 @@
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="46"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -7728,7 +8707,7 @@
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="4"/>
@@ -7765,7 +8744,7 @@
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="45"/>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -7800,7 +8779,7 @@
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -7835,7 +8814,7 @@
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="46"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -7870,7 +8849,7 @@
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="4"/>
@@ -7907,7 +8886,7 @@
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="45"/>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -7942,7 +8921,7 @@
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="45"/>
       <c r="D49" s="29"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -7977,7 +8956,7 @@
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="46"/>
       <c r="D50" s="29"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -8012,7 +8991,7 @@
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="29"/>
@@ -8049,7 +9028,7 @@
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="45"/>
       <c r="D52" s="29"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -8084,7 +9063,7 @@
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="45"/>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -8119,8 +9098,8 @@
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="46"/>
+      <c r="D54" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="7"/>
@@ -8159,7 +9138,7 @@
     <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="16"/>
@@ -8216,8 +9195,8 @@
   </sheetPr>
   <dimension ref="A1:AB56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8246,7 +9225,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -8336,7 +9315,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="12"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -8361,7 +9340,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="12"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -8386,7 +9365,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="12"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -8411,7 +9390,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="12"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -8436,7 +9415,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="12"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -8461,7 +9440,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="12"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -8486,7 +9465,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="12"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -8511,7 +9490,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="12"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -8536,7 +9515,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="12"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -8561,7 +9540,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="12"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -8583,7 +9562,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="12"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -8600,7 +9579,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="12"/>
-      <c r="AB16" s="36"/>
+      <c r="AB16" s="43"/>
     </row>
     <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
@@ -8608,7 +9587,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="16"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="12"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -8625,7 +9604,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="12"/>
-      <c r="AB17" s="36"/>
+      <c r="AB17" s="43"/>
     </row>
     <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
@@ -8633,7 +9612,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="12"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -8658,7 +9637,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="12"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -8683,7 +9662,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="12"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -8708,7 +9687,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="16"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="12"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -8730,12 +9709,12 @@
     <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="12"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="12"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -8758,10 +9737,10 @@
       <c r="A23" s="16">
         <v>31</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="16"/>
@@ -8787,7 +9766,7 @@
       <c r="A24" s="16">
         <v>30</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="45"/>
       <c r="D24" s="4"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -8814,7 +9793,7 @@
       <c r="A25" s="16">
         <v>29</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="45"/>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -8841,7 +9820,7 @@
       <c r="A26" s="16">
         <v>28</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="46"/>
       <c r="D26" s="4"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -8868,7 +9847,7 @@
       <c r="A27" s="16">
         <v>27</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="4"/>
@@ -8897,7 +9876,7 @@
       <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="45"/>
       <c r="D28" s="4"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -8924,7 +9903,7 @@
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="45"/>
       <c r="D29" s="4"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -8951,7 +9930,7 @@
       <c r="A30" s="16">
         <v>24</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="46"/>
       <c r="D30" s="4"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -8997,7 +9976,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="42"/>
+      <c r="Y31" s="49"/>
       <c r="Z31" s="12"/>
       <c r="AB31" s="4"/>
     </row>
@@ -9024,7 +10003,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="42"/>
+      <c r="Y32" s="49"/>
       <c r="Z32" s="12"/>
       <c r="AB32" s="4"/>
     </row>
@@ -9159,7 +10138,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="42"/>
+      <c r="Y37" s="49"/>
       <c r="Z37" s="12"/>
       <c r="AB37" s="4"/>
     </row>
@@ -9186,7 +10165,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="49"/>
       <c r="Z38" s="12"/>
       <c r="AB38" s="4"/>
     </row>
@@ -9194,7 +10173,7 @@
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="44" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="4"/>
@@ -9223,7 +10202,7 @@
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="D40" s="4"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -9250,7 +10229,7 @@
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="D41" s="4"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -9277,7 +10256,7 @@
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="39"/>
+      <c r="B42" s="46"/>
       <c r="D42" s="4"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -9304,7 +10283,7 @@
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="4"/>
@@ -9333,7 +10312,7 @@
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="45"/>
       <c r="D44" s="4"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -9360,7 +10339,7 @@
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="45"/>
       <c r="D45" s="4"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -9387,7 +10366,7 @@
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="39"/>
+      <c r="B46" s="46"/>
       <c r="D46" s="4"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -9414,7 +10393,7 @@
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="44" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="4"/>
@@ -9443,7 +10422,7 @@
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="45"/>
       <c r="D48" s="4"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -9470,7 +10449,7 @@
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="45"/>
       <c r="D49" s="10"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -9497,7 +10476,7 @@
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="39"/>
+      <c r="B50" s="46"/>
       <c r="D50" s="10"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -9524,7 +10503,7 @@
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="44" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="10"/>
@@ -9553,7 +10532,7 @@
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="38"/>
+      <c r="B52" s="45"/>
       <c r="D52" s="10"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
@@ -9580,7 +10559,7 @@
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="45"/>
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -9607,8 +10586,8 @@
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="46"/>
+      <c r="D54" s="42" t="s">
         <v>1</v>
       </c>
       <c r="E54" s="7"/>
@@ -9635,7 +10614,7 @@
     <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="16"/>
@@ -9683,10 +10662,1491 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF87040-F013-4F9A-9DBB-EA8AF4DA35C3}">
-  <dimension ref="A3:D55"/>
+  <dimension ref="A2:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:AB1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="1"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="V4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AB4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="15"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="12"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="12"/>
+      <c r="AB6" s="36"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>47</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="12"/>
+      <c r="AB7" s="36"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="12"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="36"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="12"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="12"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>44</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="12"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="12"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="12"/>
+      <c r="AB10" s="36"/>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>43</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="12"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="12"/>
+      <c r="AB11" s="36"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="12"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="12"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="12"/>
+      <c r="AB12" s="36"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>41</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="12"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="12"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="12"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="12"/>
+      <c r="V15" s="4"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="12"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="12"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="12"/>
+      <c r="AB16" s="43"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="12"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="12"/>
+      <c r="AB17" s="43"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="12"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="12"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="12"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="12"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="12"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="12"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="12"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="12"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="12"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="12"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>32</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="D22" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="12"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="12"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>31</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="12"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="12"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>30</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="12"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="12"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>29</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="12"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="12"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="12"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>28</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="12"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="12"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="12"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>27</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="12"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="12"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="12"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="12"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>25</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="12"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="12"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>24</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="12"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="12"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="12"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="12"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>22</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="12"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="12"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>21</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="12"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="12"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="12"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="12"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>20</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="12"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="12"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="12"/>
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>19</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="12"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="12"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="12"/>
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>18</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="12"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="12"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="12"/>
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>17</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="12"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="12"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="12"/>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>16</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="12"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="12"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="12"/>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>15</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="12"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="12"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="12"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="12"/>
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>14</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="12"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="12"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="12"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="12"/>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>13</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="12"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="12"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="12"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="12"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>12</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="12"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="12"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="12"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="12"/>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>11</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="12"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="12"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="12"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="12"/>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>10</v>
+      </c>
+      <c r="B44" s="53"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="12"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="12"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="12"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="12"/>
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>9</v>
+      </c>
+      <c r="B45" s="53"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="12"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="12"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="12"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="12"/>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>8</v>
+      </c>
+      <c r="B46" s="51"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="12"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="12"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="12"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="12"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>7</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="12"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="12"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="12"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="12"/>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>6</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="12"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="12"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="12"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="12"/>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>5</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="12"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="12"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="12"/>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>4</v>
+      </c>
+      <c r="B50" s="51"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="12"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="12"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="12"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="12"/>
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>3</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="12"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="12"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="12"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="12"/>
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>2</v>
+      </c>
+      <c r="B52" s="53"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="12"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="12"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="12"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="12"/>
+      <c r="AB52" s="4"/>
+    </row>
+    <row r="53" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>1</v>
+      </c>
+      <c r="B53" s="53"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="12"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="12"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="12"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="12"/>
+      <c r="AB53" s="4"/>
+    </row>
+    <row r="54" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>0</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="D54" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="12"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="12"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="12"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="12"/>
+      <c r="AB54" s="4"/>
+    </row>
+    <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="12"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="12"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="12"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="12"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Y37:Y38"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B39:B42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24030D-97E3-4514-B85B-2E3B2267588F}">
+  <dimension ref="A2:AB55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9695,12 +12155,29 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="1"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="1"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="1"/>
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -9708,815 +12185,1321 @@
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="V4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AB4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="1"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="12"/>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="15"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="12"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="12"/>
+      <c r="AB6" s="36"/>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>47</v>
       </c>
       <c r="B7" s="12"/>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="12"/>
+      <c r="AB7" s="36"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>46</v>
       </c>
       <c r="B8" s="12"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="12"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="12"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="36"/>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>45</v>
       </c>
       <c r="B9" s="12"/>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G9" s="16"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="12"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="12"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>44</v>
       </c>
       <c r="B10" s="12"/>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="12"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="12"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="12"/>
+      <c r="AB10" s="36"/>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>43</v>
       </c>
       <c r="B11" s="12"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G11" s="16"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="12"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="12"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="12"/>
+      <c r="AB11" s="36"/>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>42</v>
       </c>
       <c r="B12" s="12"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="12"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="12"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="12"/>
+      <c r="AB12" s="36"/>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>41</v>
       </c>
       <c r="B13" s="12"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G13" s="16"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="12"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="12"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>40</v>
       </c>
       <c r="B14" s="12"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="12"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="12"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>39</v>
       </c>
       <c r="B15" s="12"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G15" s="16"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="12"/>
+      <c r="V15" s="4"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>38</v>
       </c>
       <c r="B16" s="12"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="12"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="12"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="12"/>
+      <c r="AB16" s="43"/>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>37</v>
       </c>
       <c r="B17" s="12"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="12"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="12"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="12"/>
+      <c r="AB17" s="43"/>
+    </row>
+    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>36</v>
       </c>
       <c r="B18" s="12"/>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="12"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="12"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="12"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>35</v>
       </c>
       <c r="B19" s="12"/>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="12"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="12"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="12"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>34</v>
       </c>
       <c r="B20" s="12"/>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="12"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="12"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="12"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>33</v>
       </c>
       <c r="B21" s="12"/>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G21" s="16"/>
+      <c r="H21" s="12"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="12"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="12"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>32</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="D22" s="47"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D22" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="12"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="12"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>31</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="12"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="12"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>30</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="53"/>
+      <c r="D24" s="38"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="12"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="12"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="12"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>29</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="D25" s="38"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="12"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="12"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="12"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="12"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>28</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="51"/>
+      <c r="D26" s="38"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="12"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="12"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="12"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="12"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>27</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="12"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="12"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="12"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="12"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="53"/>
+      <c r="D28" s="38"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="12"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="12"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="D29" s="38"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="12"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="12"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="12"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="12"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>24</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="51"/>
+      <c r="D30" s="38"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="12"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="12"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="12"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="12"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>23</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="D31" s="47"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="D31" s="38"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="12"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="12"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="12"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="D32" s="38"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="12"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="12"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="12"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>21</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="D33" s="47"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="40"/>
+      <c r="D33" s="38"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="12"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="12"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="12"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="12"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>20</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="40"/>
+      <c r="D34" s="38"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="12"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="12"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="12"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="12"/>
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>19</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B35" s="40"/>
+      <c r="D35" s="38"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="12"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="12"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="12"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="12"/>
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>18</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="D36" s="47"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="D36" s="38"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="12"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="12"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="12"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="12"/>
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>17</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="D37" s="47"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="D37" s="38"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="12"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="12"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="12"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="12"/>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>16</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="D38" s="47"/>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="D38" s="38"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="12"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="12"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="12"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="12"/>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>15</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="42" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G39" s="16"/>
+      <c r="H39" s="12"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="12"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="12"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="12"/>
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>14</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="53"/>
+      <c r="D40" s="42"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="12"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="12"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="12"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="12"/>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>13</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="53"/>
+      <c r="D41" s="42"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="12"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="12"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="12"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="12"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>12</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="51"/>
+      <c r="D42" s="42"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="12"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="12"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="12"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="12"/>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>11</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D43" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="12"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="12"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="12"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="12"/>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>10</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="53"/>
+      <c r="D44" s="42"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="12"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="12"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="12"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="12"/>
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>9</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="53"/>
+      <c r="D45" s="42"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="12"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="12"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="12"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="12"/>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>8</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="51"/>
+      <c r="D46" s="42"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="12"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="12"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="12"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="12"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>7</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D47" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="12"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="12"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="12"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="12"/>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="D48" s="35"/>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="53"/>
+      <c r="D48" s="42"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="12"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="12"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="12"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="12"/>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>5</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="53"/>
+      <c r="D49" s="42"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="12"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="12"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="12"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="12"/>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>4</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="51"/>
+      <c r="D50" s="42"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="12"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="12"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="12"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="12"/>
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>3</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D51" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="12"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="12"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="12"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="12"/>
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>2</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="53"/>
+      <c r="D52" s="42"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="12"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="12"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="12"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="12"/>
+      <c r="AB52" s="4"/>
+    </row>
+    <row r="53" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="53"/>
+      <c r="D53" s="42"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="12"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="12"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="12"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="12"/>
+      <c r="AB53" s="4"/>
+    </row>
+    <row r="54" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>0</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="51"/>
+      <c r="D54" s="42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G54" s="16"/>
+      <c r="H54" s="12"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="12"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="12"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="12"/>
+      <c r="AB54" s="4"/>
+    </row>
+    <row r="55" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="16"/>
       <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
+      <c r="D55" s="42"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="12"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="12"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="12"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Y37:Y38"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC24030D-97E3-4514-B85B-2E3B2267588F}">
-  <dimension ref="A3:G55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="12"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>46</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>45</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>44</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>43</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>42</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>41</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>40</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>38</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>37</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>36</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>35</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>34</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>33</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>32</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="D22" s="47"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>31</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>30</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>29</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>28</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>27</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>26</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
-        <v>25</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
-        <v>24</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
-        <v>23</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="D31" s="47"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>22</v>
-      </c>
-      <c r="B32" s="49"/>
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>21</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="D33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>20</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>19</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="D35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>18</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="D36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>17</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="D37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <v>16</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="D38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <v>15</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>14</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="D40" s="35"/>
-    </row>
-    <row r="41" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>13</v>
-      </c>
-      <c r="B41" s="46"/>
-      <c r="D41" s="35"/>
-    </row>
-    <row r="42" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>12</v>
-      </c>
-      <c r="B42" s="44"/>
-      <c r="D42" s="35"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>11</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>10</v>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="D44" s="35"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>9</v>
-      </c>
-      <c r="B45" s="46"/>
-      <c r="D45" s="35"/>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>8</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="D46" s="35"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
-        <v>7</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>6</v>
-      </c>
-      <c r="B48" s="46"/>
-      <c r="D48" s="35"/>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>5</v>
-      </c>
-      <c r="B49" s="46"/>
-      <c r="D49" s="35"/>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="16">
-        <v>4</v>
-      </c>
-      <c r="B50" s="44"/>
-      <c r="D50" s="35"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
-        <v>3</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>2</v>
-      </c>
-      <c r="B52" s="46"/>
-      <c r="D52" s="35"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
-        <v>1</v>
-      </c>
-      <c r="B53" s="46"/>
-      <c r="D53" s="35"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>0</v>
-      </c>
-      <c r="B54" s="44"/>
-      <c r="D54" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="3"/>
-      <c r="D55" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AB16:AB17"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D47:D50"/>
@@ -10526,9 +13509,6 @@
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D23:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
